--- a/jour37.xlsx
+++ b/jour37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Bayo', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Bercola']</t>
-  </si>
-  <si>
-    <t>['Varane']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Andre']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Kipembe', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'Delaine']</t>
+    <t>['Ben_Seguir', 'Sibide']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Coco']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Maouassa', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Terrier', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
+    <t>PSG</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Lopy']</t>
-  </si>
-  <si>
-    <t>["N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Sima', 'Alioui']</t>
-  </si>
-  <si>
-    <t>['Theate']</t>
-  </si>
-  <si>
-    <t>['Henrique', 'Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Nordin', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Blas']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Diop', 'Dante', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Lopez']</t>
+    <t>['Van_den_Boomen', 'Healey', 'Desler', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Guillaume', 'Camara', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Le_Goff', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Delaine']</t>
+  </si>
+  <si>
+    <t>['Alphonse']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Conte', 'Porozo']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Gastien', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Mendes', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Jeanvier', 'Lipinski', 'Dembele']</t>
   </si>
 </sst>
 </file>
@@ -558,22 +552,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,28 +575,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -616,22 +610,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -645,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -654,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -668,28 +662,28 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,28 +691,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,28 +720,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,28 +749,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,25 +778,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -813,28 +807,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jour37.xlsx
+++ b/jour37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ben_Seguir', 'Sibide']</t>
+    <t>['Ratao', 'ChaÃ¯bi', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Kroupi', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Bamba']</t>
+  </si>
+  <si>
+    <t>['Wooh', 'Assignon', 'Wooh', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Pereira', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Germain', 'Germain', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Pellenard']</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>['Delort', 'Guessand']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Lopez', 'Kabore', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Alphonse']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Cajuste']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Coco']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Maouassa', 'Germain']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Terrier', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen', 'Healey', 'Desler', 'Desler']</t>
-  </si>
-  <si>
-    <t>['Guillaume', 'Camara', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Le_Goff', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Delaine']</t>
-  </si>
-  <si>
-    <t>['Alphonse']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Conte', 'Porozo']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Gastien', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Mendes', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Jeanvier', 'Lipinski', 'Dembele']</t>
+    <t>['Kipembe', 'Kipembe', 'Kipembe']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Chavalerin', 'Palaversa', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Martin']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Serrano', 'Henrique']</t>
   </si>
 </sst>
 </file>
@@ -546,28 +552,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -575,28 +581,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -604,28 +610,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,22 +645,22 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -662,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
         <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -691,25 +697,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -720,25 +726,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -749,25 +755,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -778,28 +784,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -807,28 +813,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour37.xlsx
+++ b/jour37.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,31 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ratao', 'ChaÃ¯bi', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Kroupi', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Bamba']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Assignon', 'Wooh', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Medina', 'Pereira', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Germain', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Pellenard']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Lemarechal', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Wieteska']</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Delort', 'Guessand']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Lopez', 'Kabore', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Alphonse']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Kipembe', 'Kipembe', 'Kipembe']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Palaversa', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Martin']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Serrano', 'Henrique']</t>
+    <t>['Mendes', 'Ramos', 'Kipembe']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen', 'Aboukhlal']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +456,81 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+      <c r="K3">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
